--- a/48_Information/Passwords for SikhsinUAE.xlsx
+++ b/48_Information/Passwords for SikhsinUAE.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cnhind-my.sharepoint.com/personal/tavinder_arora_cnhind_com/Documents/Desktop/Misc 160902023/SikhsinUAE/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_F25DC773A252ABDACC10482CE1D9707A5ADE58F7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FBD92276-8D1B-46A4-A976-561D2A56BF95}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="11505"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" calcCompleted="0"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,10 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>Sikhsuae.gmail.com</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t>sikhsinuae.com</t>
   </si>
@@ -48,19 +39,35 @@
   </si>
   <si>
     <t>Sikhsinuae</t>
+  </si>
+  <si>
+    <t>https://www.emailjs.com/</t>
+  </si>
+  <si>
+    <t>Lal@7277</t>
+  </si>
+  <si>
+    <t>Sikhsuae@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -80,13 +87,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -145,7 +158,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -180,7 +193,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -357,44 +370,65 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:C6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B3:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B3" t="s">
+    <row r="3" spans="2:4">
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B4" t="s">
+    <row r="6" spans="2:4">
+      <c r="B6" t="s">
         <v>1</v>
       </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
+    <row r="9" spans="2:4">
+      <c r="B9" t="s">
         <v>3</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1"/>
+    <hyperlink ref="D6" r:id="rId2"/>
+    <hyperlink ref="D9" r:id="rId3"/>
+    <hyperlink ref="B3" r:id="rId4"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"Calibri"&amp;10&amp;K000000 General Business&amp;1#_x000D_</oddHeader>
